--- a/data/trans_orig/P14A28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBECEFD1-17DD-4D2F-9965-0F23C72D50F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F255F3B-0D37-4D3B-AB02-3410F2A66DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{381D24A7-0286-45DB-87AA-783F64980437}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{296DEFC3-FC28-48CD-AB22-9F77AD286623}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="213">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -114,175 +114,181 @@
     <t>11,84%</t>
   </si>
   <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -291,109 +297,109 @@
     <t>72,55%</t>
   </si>
   <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -429,259 +435,247 @@
     <t>74,91%</t>
   </si>
   <si>
-    <t>30,25%</t>
+    <t>30,32%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>30,26%</t>
+    <t>29,16%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>69,75%</t>
+    <t>69,68%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>69,74%</t>
+    <t>70,84%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>51,94%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>75,22%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>89,73%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>10,27%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>78,87%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>21,13%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C74B0D0-8C8D-42DC-93A1-0EA05E00D3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A8E336-F030-4AEA-80DA-148818E91FA6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,13 +1831,13 @@
         <v>33566</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1852,13 +1846,13 @@
         <v>66652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -1867,13 +1861,13 @@
         <v>100218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1882,13 @@
         <v>4165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1903,13 +1897,13 @@
         <v>24286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -1918,13 +1912,13 @@
         <v>28452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,7 +1974,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1992,13 +1986,13 @@
         <v>78545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>225</v>
@@ -2007,13 +2001,13 @@
         <v>244525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>295</v>
@@ -2022,13 +2016,13 @@
         <v>323069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2037,13 @@
         <v>29714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -2058,13 +2052,13 @@
         <v>34987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2073,13 +2067,13 @@
         <v>64701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2141,13 @@
         <v>133348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>341</v>
@@ -2162,13 +2156,13 @@
         <v>369200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>462</v>
@@ -2177,13 +2171,13 @@
         <v>502547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2192,13 @@
         <v>40731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
@@ -2213,13 +2207,13 @@
         <v>68536</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -2228,13 +2222,13 @@
         <v>109268</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2284,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35D2D50-B550-4341-A552-F4ACFCF58A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49159BAF-2B92-4038-B030-C5CB0DFD59A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2329,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2434,13 +2428,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2449,7 +2443,7 @@
         <v>939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -2464,7 +2458,7 @@
         <v>939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -2483,13 +2477,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2498,7 +2492,7 @@
         <v>939</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2513,7 +2507,7 @@
         <v>939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -2532,13 +2526,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2585,7 +2579,7 @@
         <v>956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2615,10 +2609,10 @@
         <v>3410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2636,7 +2630,7 @@
         <v>1055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2666,13 +2660,13 @@
         <v>1055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,10 +2734,10 @@
         <v>5617</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2755,10 +2749,10 @@
         <v>5803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2770,13 +2764,13 @@
         <v>11420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2785,13 @@
         <v>1882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2806,13 +2800,13 @@
         <v>2486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2821,13 +2815,13 @@
         <v>4368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2889,13 @@
         <v>18843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2910,13 +2904,13 @@
         <v>34532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2925,13 +2919,13 @@
         <v>53376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2940,13 @@
         <v>6117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2961,13 +2955,13 @@
         <v>8072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2976,13 +2970,13 @@
         <v>14188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3044,13 @@
         <v>12457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3065,13 +3059,13 @@
         <v>66166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -3080,13 +3074,13 @@
         <v>78623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3095,13 @@
         <v>11526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3116,13 +3110,13 @@
         <v>14373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -3131,13 +3125,13 @@
         <v>25899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3187,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3205,13 +3199,13 @@
         <v>50770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3220,13 +3214,13 @@
         <v>166800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>198</v>
@@ -3235,13 +3229,13 @@
         <v>217570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3250,13 @@
         <v>12722</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -3271,13 +3265,13 @@
         <v>29518</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3381,7 +3375,7 @@
         <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>332</v>
@@ -3390,13 +3384,13 @@
         <v>365338</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3405,13 @@
         <v>33301</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -3426,13 +3420,13 @@
         <v>55388</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -3441,13 +3435,13 @@
         <v>88690</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3497,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F255F3B-0D37-4D3B-AB02-3410F2A66DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D202818-79C1-4067-8F17-96264B83F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{296DEFC3-FC28-48CD-AB22-9F77AD286623}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38B43ED5-DC0B-4B5E-B1C4-DECBE6201AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="215">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -111,10 +111,10 @@
     <t>56,92%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>67,14%</t>
@@ -123,19 +123,19 @@
     <t>59,5%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>43,08%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>32,86%</t>
@@ -144,10 +144,10 @@
     <t>40,5%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -156,7 +156,7 @@
     <t>86,19%</t>
   </si>
   <si>
-    <t>42,73%</t>
+    <t>41,37%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -165,13 +165,13 @@
     <t>95,47%</t>
   </si>
   <si>
-    <t>77,07%</t>
+    <t>77,58%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>57,27%</t>
+    <t>58,63%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -180,7 +180,7 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>22,93%</t>
+    <t>22,42%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -189,49 +189,49 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>49,6%</t>
+    <t>48,92%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>50,4%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -240,55 +240,55 @@
     <t>88,96%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -297,115 +297,109 @@
     <t>72,55%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>79,19%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>20,81%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por artritis en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por artritis en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -435,247 +429,259 @@
     <t>74,91%</t>
   </si>
   <si>
-    <t>30,32%</t>
+    <t>28,53%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>29,16%</t>
+    <t>29,64%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>69,68%</t>
+    <t>71,47%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>70,84%</t>
+    <t>70,36%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>51,94%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>75,22%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>89,73%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>10,27%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,87%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>21,13%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A8E336-F030-4AEA-80DA-148818E91FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EB6AF0-CB70-4E93-A2C6-4B0D85AF6130}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,7 +2028,7 @@
         <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2043,13 @@
         <v>29714</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -2052,13 +2058,13 @@
         <v>34987</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2067,13 +2073,13 @@
         <v>64701</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2147,13 @@
         <v>133348</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>341</v>
@@ -2156,13 +2162,13 @@
         <v>369200</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>462</v>
@@ -2171,13 +2177,13 @@
         <v>502547</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2198,13 @@
         <v>40731</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
@@ -2207,13 +2213,13 @@
         <v>68536</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -2222,13 +2228,13 @@
         <v>109268</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2290,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49159BAF-2B92-4038-B030-C5CB0DFD59A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75400812-2221-46A2-9255-22C2CD905079}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2323,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2428,13 +2434,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2443,7 +2449,7 @@
         <v>939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -2458,7 +2464,7 @@
         <v>939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -2477,13 +2483,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2492,7 +2498,7 @@
         <v>939</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2507,7 +2513,7 @@
         <v>939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -2526,13 +2532,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2579,7 +2585,7 @@
         <v>956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2609,10 +2615,10 @@
         <v>3410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2630,7 +2636,7 @@
         <v>1055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2660,13 +2666,13 @@
         <v>1055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,10 +2740,10 @@
         <v>5617</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2749,10 +2755,10 @@
         <v>5803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2764,13 +2770,13 @@
         <v>11420</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2791,13 @@
         <v>1882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2800,13 +2806,13 @@
         <v>2486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2815,13 +2821,13 @@
         <v>4368</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2895,13 @@
         <v>18843</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2904,13 +2910,13 @@
         <v>34532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2919,13 +2925,13 @@
         <v>53376</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2946,13 @@
         <v>6117</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2955,13 +2961,13 @@
         <v>8072</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2970,13 +2976,13 @@
         <v>14188</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3050,13 @@
         <v>12457</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3059,13 +3065,13 @@
         <v>66166</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -3074,13 +3080,13 @@
         <v>78623</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3101,13 @@
         <v>11526</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3110,13 +3116,13 @@
         <v>14373</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -3125,13 +3131,13 @@
         <v>25899</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3205,13 @@
         <v>50770</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3214,13 +3220,13 @@
         <v>166800</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>198</v>
@@ -3229,13 +3235,13 @@
         <v>217570</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3256,13 @@
         <v>12722</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -3265,13 +3271,13 @@
         <v>29518</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3375,7 +3381,7 @@
         <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>332</v>
@@ -3384,13 +3390,13 @@
         <v>365338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3411,13 @@
         <v>33301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -3420,13 +3426,13 @@
         <v>55388</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -3435,13 +3441,13 @@
         <v>88690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3503,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
